--- a/notebooks/TBCK/input/TBCK_IHPRF3_individuals.xlsx
+++ b/notebooks/TBCK/input/TBCK_IHPRF3_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TBCK/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B55364-8569-7B4E-88DD-046B5D3CC230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83B199A-C96D-6145-B09F-A5A120769F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="4240" windowWidth="34920" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7580" yWindow="6000" windowWidth="33680" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="280">
   <si>
     <t>PMID</t>
   </si>
@@ -713,13 +713,160 @@
   </si>
   <si>
     <t>HP:0100288</t>
+  </si>
+  <si>
+    <t>PMID:36273129</t>
+  </si>
+  <si>
+    <t>Identification of a novel pathogenic TBCK variant in a Chinese patient with infantile hypotonia with psychomotor retardation and characteristic facies type 3 (IHPRF3): a case report</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>P5M</t>
+  </si>
+  <si>
+    <t>Hypertelorism</t>
+  </si>
+  <si>
+    <t>HP:0000316</t>
+  </si>
+  <si>
+    <t>Congenital onset</t>
+  </si>
+  <si>
+    <t>Cryptorchidism</t>
+  </si>
+  <si>
+    <t>HP:0000028</t>
+  </si>
+  <si>
+    <t>Pectus excavatum</t>
+  </si>
+  <si>
+    <t>HP:0000767</t>
+  </si>
+  <si>
+    <t>c.247C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_001156907.2:p.(Arg83Ter)</t>
+  </si>
+  <si>
+    <t>PMID:32363625</t>
+  </si>
+  <si>
+    <t>Myopathic changes associated with psychomotor delay and seizures caused by a novel homozygous mutation in TBCK</t>
+  </si>
+  <si>
+    <t>Individual P1</t>
+  </si>
+  <si>
+    <t>Individual P2</t>
+  </si>
+  <si>
+    <t>P13Y</t>
+  </si>
+  <si>
+    <t>P8Y</t>
+  </si>
+  <si>
+    <t>Thin corpus callosum</t>
+  </si>
+  <si>
+    <t>HP:0033725</t>
+  </si>
+  <si>
+    <t>Ventriculomegaly</t>
+  </si>
+  <si>
+    <t>HP:0002119</t>
+  </si>
+  <si>
+    <t>Bilateral tonic-clonic seizure with focal onset</t>
+  </si>
+  <si>
+    <t>HP:0007334</t>
+  </si>
+  <si>
+    <t>Mildly elevated creatine kinase</t>
+  </si>
+  <si>
+    <t>HP:0008180</t>
+  </si>
+  <si>
+    <t>Limb muscle weakness</t>
+  </si>
+  <si>
+    <t>HP:0003690</t>
+  </si>
+  <si>
+    <t>Axial muscle weakness</t>
+  </si>
+  <si>
+    <t>HP:0003327</t>
+  </si>
+  <si>
+    <t>Tapered finger</t>
+  </si>
+  <si>
+    <t>HP:0001182</t>
+  </si>
+  <si>
+    <t>Joint contracture</t>
+  </si>
+  <si>
+    <t>HP:0034392</t>
+  </si>
+  <si>
+    <t>P1Y4M</t>
+  </si>
+  <si>
+    <t>Enlarged cisterna magna</t>
+  </si>
+  <si>
+    <t>HP:0002280</t>
+  </si>
+  <si>
+    <t>Increased variability in muscle fiber diameter</t>
+  </si>
+  <si>
+    <t>HP:0003557</t>
+  </si>
+  <si>
+    <t>c.535_554del</t>
+  </si>
+  <si>
+    <t>NP_001156907.2:p.(Leu179ArgfsTer11)</t>
+  </si>
+  <si>
+    <t>PMID:37876076</t>
+  </si>
+  <si>
+    <t>Mutation Of TBC1 Domain Containing Kinase (TBCK) With Associated Intellectual Disability And Hypotonia</t>
+  </si>
+  <si>
+    <t>P6Y6M</t>
+  </si>
+  <si>
+    <t>Feeding difficulties</t>
+  </si>
+  <si>
+    <t>HP:0011968</t>
+  </si>
+  <si>
+    <t>c.490C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_001156907.2:p.(Gln164Ter)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,6 +899,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -792,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -806,6 +960,7 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,19 +1265,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BY26"/>
+  <dimension ref="A1:CM29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="36" width="8.83203125" customWidth="1"/>
+    <col min="22" max="37" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,157 +1360,199 @@
         <v>118</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BU1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="CH1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="CL1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>240</v>
+      </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1438,157 +1635,199 @@
         <v>119</v>
       </c>
       <c r="AB2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC2" t="s">
         <v>137</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>125</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>121</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>123</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>151</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>192</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>190</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>135</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>145</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>129</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>184</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>209</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>127</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>46</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>143</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV2" t="s">
         <v>131</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>133</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AY2" t="s">
         <v>139</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>141</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>216</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BB2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD2" t="s">
         <v>111</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BE2" t="s">
+        <v>268</v>
+      </c>
+      <c r="BF2" t="s">
         <v>113</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BG2" t="s">
         <v>109</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BH2" t="s">
         <v>107</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BI2" t="s">
         <v>115</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BJ2" t="s">
         <v>49</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BK2" t="s">
         <v>52</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BL2" t="s">
         <v>50</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BM2" t="s">
         <v>230</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BN2" t="s">
+        <v>270</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>257</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BR2" t="s">
         <v>228</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BS2" t="s">
         <v>51</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BT2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BU2" t="s">
         <v>53</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BV2" t="s">
         <v>54</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BW2" t="s">
         <v>101</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BX2" t="s">
         <v>105</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BY2" t="s">
         <v>168</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BZ2" t="s">
         <v>214</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CA2" t="s">
         <v>206</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CB2" t="s">
         <v>170</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CC2" t="s">
         <v>172</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CD2" t="s">
         <v>174</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CE2" t="s">
         <v>176</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CF2" t="s">
         <v>178</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CG2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CH2" t="s">
         <v>180</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CI2" t="s">
         <v>182</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CJ2" t="s">
         <v>204</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CK2" t="s">
         <v>211</v>
       </c>
+      <c r="CL2" t="s">
+        <v>239</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>241</v>
+      </c>
     </row>
-    <row r="3" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
@@ -1661,9 +1900,6 @@
       <c r="AA3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AC3" s="3" t="s">
         <v>103</v>
       </c>
@@ -1673,14 +1909,14 @@
       <c r="AE3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AG3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>102</v>
+      <c r="AF3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL3" s="3" t="s">
         <v>103</v>
@@ -1691,7 +1927,7 @@
       <c r="AN3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AR3" s="3" t="s">
@@ -1703,53 +1939,56 @@
       <c r="AT3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AW3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AY3" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="AZ3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BA3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="BD3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BE3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="BF3" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="BI3" s="3" t="s">
         <v>102</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BK3" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BL3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BM3" s="3" t="s">
+      <c r="BS3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX3" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -1821,9 +2060,7 @@
       <c r="AA4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AB4" s="3"/>
       <c r="AC4" s="3" t="s">
         <v>103</v>
       </c>
@@ -1833,17 +2070,17 @@
       <c r="AE4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH4" s="3"/>
+      <c r="AF4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AI4" s="3"/>
-      <c r="AJ4" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="AJ4" s="3"/>
       <c r="AK4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>103</v>
@@ -1854,11 +2091,11 @@
       <c r="AN4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO4" s="3"/>
+      <c r="AO4" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AP4" s="3"/>
-      <c r="AQ4" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AQ4" s="3"/>
       <c r="AR4" s="3" t="s">
         <v>103</v>
       </c>
@@ -1868,54 +2105,61 @@
       <c r="AT4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AW4" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AX4" s="3"/>
-      <c r="AY4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC4" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
       <c r="BD4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE4" s="5" t="s">
         <v>103</v>
       </c>
       <c r="BF4" s="5" t="s">
         <v>102</v>
       </c>
+      <c r="BG4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH4" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="BI4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BJ4" s="3" t="s">
-        <v>103</v>
+      <c r="BJ4" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="BK4" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BL4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX4" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -1990,9 +2234,7 @@
       <c r="AA5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB5" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AB5" s="3"/>
       <c r="AC5" s="3" t="s">
         <v>103</v>
       </c>
@@ -2002,15 +2244,15 @@
       <c r="AE5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH5" s="3"/>
+      <c r="AF5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AI5" s="3"/>
-      <c r="AJ5" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AJ5" s="3"/>
       <c r="AK5" s="3" t="s">
         <v>103</v>
       </c>
@@ -2023,68 +2265,75 @@
       <c r="AN5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO5" s="3"/>
+      <c r="AO5" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AP5" s="3"/>
-      <c r="AQ5" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AQ5" s="3"/>
       <c r="AR5" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AT5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AU5" s="3" t="s">
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AW5" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AX5" s="3"/>
-      <c r="AY5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC5" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
       <c r="BD5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE5" s="5" t="s">
         <v>103</v>
       </c>
       <c r="BF5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH5" s="5" t="s">
         <v>102</v>
       </c>
       <c r="BI5" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BJ5" s="3" t="s">
-        <v>103</v>
+      <c r="BJ5" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="BK5" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BL5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX5" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
@@ -2157,9 +2406,6 @@
       <c r="AA6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AB6" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AC6" s="3" t="s">
         <v>103</v>
       </c>
@@ -2169,11 +2415,11 @@
       <c r="AE6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>103</v>
+      <c r="AF6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="AK6" s="3" t="s">
         <v>103</v>
@@ -2187,7 +2433,7 @@
       <c r="AN6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AQ6" s="3" t="s">
+      <c r="AO6" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AR6" s="3" t="s">
@@ -2199,53 +2445,57 @@
       <c r="AT6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AU6" s="3" t="s">
-        <v>102</v>
+      <c r="AV6" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="AW6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AZ6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BA6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC6" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="BD6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE6" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BF6" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="BG6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="BI6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
         <v>102</v>
       </c>
       <c r="BK6" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BS6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT6" s="8"/>
+      <c r="BU6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX6" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -2318,9 +2568,6 @@
       <c r="AA7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB7" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AC7" s="3" t="s">
         <v>103</v>
       </c>
@@ -2330,10 +2577,10 @@
       <c r="AE7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AG7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH7" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AK7" s="3" t="s">
@@ -2348,65 +2595,69 @@
       <c r="AN7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AQ7" s="3" t="s">
+      <c r="AO7" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AT7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AU7" s="3" t="s">
+      <c r="AV7" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AW7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AY7" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AZ7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BA7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC7" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="BD7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE7" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BF7" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="BI7" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BJ7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BK7" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT7" s="8"/>
+      <c r="BU7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="BM7" s="8" t="s">
+      <c r="BX7" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
@@ -2477,9 +2728,6 @@
       <c r="AA8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AC8" s="3" t="s">
         <v>103</v>
       </c>
@@ -2489,10 +2737,10 @@
       <c r="AE8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AG8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH8" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AK8" s="3" t="s">
@@ -2507,7 +2755,7 @@
       <c r="AN8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AQ8" s="3" t="s">
+      <c r="AO8" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AR8" s="3" t="s">
@@ -2519,53 +2767,57 @@
       <c r="AT8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AU8" s="3" t="s">
+      <c r="AV8" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AW8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AY8" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="AZ8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BA8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC8" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="BD8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BE8" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="BF8" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="BG8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH8" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="BI8" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BJ8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BK8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT8" s="8"/>
+      <c r="BU8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX8" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>55</v>
       </c>
@@ -2638,22 +2890,19 @@
       <c r="AA9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AC9" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AD9" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AK9" s="3" t="s">
@@ -2666,67 +2915,71 @@
         <v>103</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO9" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AS9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AT9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV9" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AW9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AZ9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BA9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC9" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="BD9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE9" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BF9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH9" s="3" t="s">
         <v>102</v>
       </c>
       <c r="BI9" s="8" t="s">
         <v>102</v>
       </c>
       <c r="BJ9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BK9" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BL9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM9" s="8" t="s">
+      <c r="BL9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT9" s="8"/>
+      <c r="BU9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX9" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -2799,24 +3052,21 @@
       <c r="AA10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>103</v>
+      <c r="AC10" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="AD10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AE10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>102</v>
+      <c r="AE10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="AK10" s="5" t="s">
         <v>102</v>
@@ -2824,13 +3074,13 @@
       <c r="AL10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AM10" s="3" t="s">
-        <v>103</v>
+      <c r="AM10" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="AN10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AQ10" s="3" t="s">
+      <c r="AO10" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AR10" s="3" t="s">
@@ -2842,57 +3092,63 @@
       <c r="AT10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AU10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX10" s="5"/>
-      <c r="AY10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC10" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="AV10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
       <c r="BD10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE10" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BF10" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="BG10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH10" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="BI10" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BJ10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BK10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BS10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT10" s="8"/>
+      <c r="BU10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX10" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
@@ -2965,23 +3221,20 @@
       <c r="AA11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB11" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AC11" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AE11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
+      <c r="AE11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AK11" s="3" t="s">
@@ -2996,68 +3249,73 @@
       <c r="AN11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AQ11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR11" s="5" t="s">
-        <v>102</v>
+      <c r="AO11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="AS11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AT11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV11" s="5" t="s">
-        <v>102</v>
+      <c r="AT11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="AW11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AY11" s="3" t="s">
-        <v>103</v>
+      <c r="AY11" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="AZ11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BA11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC11" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="BD11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE11" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BF11" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="BG11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH11" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="BI11" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BJ11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BK11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BS11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT11" s="8"/>
+      <c r="BU11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX11" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
@@ -3132,9 +3390,7 @@
       <c r="AA12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AB12" s="3"/>
       <c r="AC12" s="3" t="s">
         <v>103</v>
       </c>
@@ -3144,15 +3400,15 @@
       <c r="AE12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH12" s="3"/>
+      <c r="AF12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AI12" s="3"/>
-      <c r="AJ12" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AJ12" s="3"/>
       <c r="AK12" s="3" t="s">
         <v>103</v>
       </c>
@@ -3165,11 +3421,11 @@
       <c r="AN12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO12" s="3"/>
+      <c r="AO12" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AP12" s="3"/>
-      <c r="AQ12" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AQ12" s="3"/>
       <c r="AR12" s="3" t="s">
         <v>103</v>
       </c>
@@ -3179,54 +3435,61 @@
       <c r="AT12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AU12" s="3" t="s">
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AW12" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AX12" s="3"/>
-      <c r="AY12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC12" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="AZ12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
       <c r="BD12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE12" s="5" t="s">
         <v>103</v>
       </c>
       <c r="BF12" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="BG12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH12" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="BI12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="BJ12" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="BK12" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BL12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX12" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -3300,9 +3563,7 @@
       <c r="AA13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB13" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AB13" s="3"/>
       <c r="AC13" s="3" t="s">
         <v>103</v>
       </c>
@@ -3312,15 +3573,15 @@
       <c r="AE13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH13" s="3"/>
+      <c r="AF13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AI13" s="3"/>
-      <c r="AJ13" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AJ13" s="3"/>
       <c r="AK13" s="3" t="s">
         <v>103</v>
       </c>
@@ -3333,68 +3594,74 @@
       <c r="AN13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO13" s="3"/>
+      <c r="AO13" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AP13" s="3"/>
-      <c r="AQ13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS13" s="3" t="s">
-        <v>103</v>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS13" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="AT13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AU13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC13" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
       <c r="BD13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE13" s="5" t="s">
         <v>103</v>
       </c>
       <c r="BF13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH13" s="5" t="s">
         <v>102</v>
       </c>
       <c r="BI13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BJ13" s="3" t="s">
-        <v>103</v>
+      <c r="BJ13" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="BK13" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BL13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX13" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -3467,9 +3734,6 @@
       <c r="AA14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AC14" s="3" t="s">
         <v>103</v>
       </c>
@@ -3479,10 +3743,10 @@
       <c r="AE14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AG14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH14" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AK14" s="3" t="s">
@@ -3491,13 +3755,13 @@
       <c r="AL14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AM14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
+      <c r="AM14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO14" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AR14" s="3" t="s">
@@ -3509,53 +3773,57 @@
       <c r="AT14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AU14" s="3" t="s">
+      <c r="AV14" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AW14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AY14" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AZ14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BA14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC14" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="BD14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE14" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BF14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="BI14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL14" s="8" t="s">
+      <c r="BS14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT14" s="8"/>
+      <c r="BU14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="BM14" s="8" t="s">
+      <c r="BX14" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
@@ -3627,9 +3895,7 @@
       <c r="AA15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AB15" s="5"/>
       <c r="AC15" s="3" t="s">
         <v>103</v>
       </c>
@@ -3639,10 +3905,10 @@
       <c r="AE15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AG15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ15" s="3" t="s">
+      <c r="AF15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH15" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AK15" s="3" t="s">
@@ -3654,14 +3920,14 @@
       <c r="AM15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AN15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO15" s="5"/>
+      <c r="AN15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO15" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="AP15" s="5"/>
-      <c r="AQ15" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AQ15" s="5"/>
       <c r="AR15" s="3" t="s">
         <v>103</v>
       </c>
@@ -3671,53 +3937,57 @@
       <c r="AT15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AU15" s="3" t="s">
+      <c r="AV15" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AW15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AY15" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AZ15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BA15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC15" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="BD15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE15" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BF15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="BI15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK15" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM15" s="8" t="s">
+      <c r="BS15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT15" s="8"/>
+      <c r="BU15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX15" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>152</v>
       </c>
@@ -3781,71 +4051,79 @@
       <c r="Y16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AF16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH16" s="3" t="s">
+      <c r="AG16" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AI16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AO16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP16" s="3"/>
-      <c r="AW16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX16" s="3"/>
-      <c r="BD16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="8" t="s">
+      <c r="AJ16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ16" s="3"/>
+      <c r="AZ16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BJ16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="3"/>
+      <c r="BQ16" s="3"/>
+      <c r="BR16" s="3"/>
+      <c r="BS16" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="BJ16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO16" s="8"/>
-      <c r="BP16" s="8"/>
-      <c r="BQ16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BR16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BU16" s="8" t="s">
-        <v>102</v>
+      <c r="BT16" s="8"/>
+      <c r="BU16" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="BV16" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BW16" s="8" t="s">
+      <c r="BY16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ16" s="8"/>
+      <c r="CA16" s="8"/>
+      <c r="CB16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CD16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CE16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG16" s="8"/>
+      <c r="CH16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CI16" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>152</v>
       </c>
@@ -3909,69 +4187,77 @@
       <c r="Y17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AF17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH17" s="3" t="s">
+      <c r="AG17" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AI17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AO17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP17" s="3"/>
-      <c r="AW17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX17" s="3"/>
-      <c r="BD17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="8" t="s">
+      <c r="AJ17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ17" s="3"/>
+      <c r="AZ17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BJ17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
+      <c r="BP17" s="3"/>
+      <c r="BQ17" s="3"/>
+      <c r="BR17" s="3"/>
+      <c r="BS17" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="BJ17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>102</v>
-      </c>
-      <c r="BQ17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BS17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BU17" s="8" t="s">
+      <c r="BT17" s="8"/>
+      <c r="BU17" s="3" t="s">
         <v>102</v>
       </c>
       <c r="BV17" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BW17" s="8" t="s">
+      <c r="BY17" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CE17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG17" s="8"/>
+      <c r="CH17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CI17" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>152</v>
       </c>
@@ -4035,69 +4321,77 @@
       <c r="Y18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AF18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH18" s="3" t="s">
+      <c r="AG18" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AI18" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AO18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP18" s="3"/>
-      <c r="AW18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX18" s="3"/>
-      <c r="BD18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF18" s="3" t="s">
+      <c r="AJ18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ18" s="3"/>
+      <c r="AZ18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BJ18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="8" t="s">
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
+      <c r="BP18" s="3"/>
+      <c r="BQ18" s="3"/>
+      <c r="BR18" s="3"/>
+      <c r="BS18" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="BJ18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>103</v>
-      </c>
-      <c r="BQ18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BS18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BU18" s="8" t="s">
+      <c r="BT18" s="8"/>
+      <c r="BU18" s="3" t="s">
         <v>102</v>
       </c>
       <c r="BV18" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BW18" s="8" t="s">
+      <c r="BY18" t="s">
+        <v>103</v>
+      </c>
+      <c r="CB18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CE18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG18" s="8"/>
+      <c r="CH18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CI18" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>152</v>
       </c>
@@ -4161,71 +4455,79 @@
       <c r="Y19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AF19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH19" s="3" t="s">
+      <c r="AG19" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AI19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AO19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP19" s="3"/>
-      <c r="AW19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX19" s="3"/>
-      <c r="BD19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="8" t="s">
-        <v>103</v>
-      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ19" s="3"/>
+      <c r="AZ19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
       <c r="BJ19" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BK19" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BO19" s="8"/>
-      <c r="BP19" s="8"/>
-      <c r="BQ19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR19" s="8" t="s">
-        <v>103</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="BL19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="3"/>
+      <c r="BR19" s="3"/>
       <c r="BS19" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BT19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BU19" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="BT19" s="8"/>
+      <c r="BU19" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="BV19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BW19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BZ19" s="8"/>
+      <c r="CA19" s="8"/>
+      <c r="CB19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CE19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG19" s="8"/>
+      <c r="CH19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI19" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>152</v>
       </c>
@@ -4289,71 +4591,79 @@
       <c r="Y20" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH20" s="3" t="s">
+      <c r="AG20" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AI20" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP20" s="3"/>
-      <c r="AW20" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX20" s="3"/>
-      <c r="BD20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
-      <c r="BI20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ20" s="3"/>
+      <c r="AZ20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BJ20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+      <c r="BO20" s="3"/>
+      <c r="BP20" s="3"/>
+      <c r="BQ20" s="3"/>
+      <c r="BR20" s="3"/>
+      <c r="BS20" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="BJ20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO20" s="8"/>
-      <c r="BP20" s="8"/>
-      <c r="BQ20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BR20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BS20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BU20" s="8" t="s">
+      <c r="BT20" s="8"/>
+      <c r="BU20" s="3" t="s">
         <v>102</v>
       </c>
       <c r="BV20" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BW20" s="8" t="s">
+      <c r="BY20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ20" s="8"/>
+      <c r="CA20" s="8"/>
+      <c r="CB20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CE20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG20" s="8"/>
+      <c r="CH20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CI20" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>195</v>
       </c>
@@ -4402,41 +4712,42 @@
       <c r="Q21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AP21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BD21" s="8" t="s">
-        <v>102</v>
+      <c r="AQ21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>103</v>
       </c>
       <c r="BI21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS21" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="BK21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BP21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BX21" t="s">
-        <v>102</v>
-      </c>
-      <c r="BY21" t="s">
+      <c r="BT21" s="8"/>
+      <c r="BV21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>195</v>
       </c>
@@ -4482,39 +4793,40 @@
       <c r="Q22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AP22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW22" s="3"/>
-      <c r="AX22" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BD22" s="8" t="s">
-        <v>102</v>
+      <c r="AQ22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" t="s">
+        <v>103</v>
       </c>
       <c r="BI22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS22" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="BK22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BP22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BX22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BY22" s="8" t="s">
+      <c r="BT22" s="8"/>
+      <c r="BV22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK22" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>195</v>
       </c>
@@ -4560,35 +4872,38 @@
       <c r="Q23" t="s">
         <v>41</v>
       </c>
-      <c r="AP23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BD23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI23" s="8" t="s">
+      <c r="AQ23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="8"/>
+      <c r="BJ23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS23" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="BK23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BP23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BX23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BY23" s="8" t="s">
+      <c r="BT23" s="8"/>
+      <c r="BV23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK23" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>221</v>
       </c>
@@ -4640,53 +4955,58 @@
       <c r="W24" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AK24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BD24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG24" s="8" t="s">
-        <v>102</v>
+      <c r="AL24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>103</v>
       </c>
       <c r="BH24" s="8" t="s">
         <v>102</v>
       </c>
       <c r="BI24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN24" s="8"/>
+      <c r="BO24" s="8"/>
+      <c r="BP24" s="8"/>
+      <c r="BQ24" s="8"/>
+      <c r="BR24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="BJ24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO24" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT24" s="8" t="s">
+      <c r="BT24" s="8"/>
+      <c r="BU24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CE24" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>221</v>
       </c>
@@ -4735,54 +5055,575 @@
       <c r="W25" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AK25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BD25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG25" s="8" t="s">
+      <c r="AL25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW25" t="s">
         <v>103</v>
       </c>
       <c r="BH25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BI25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BJ25" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BK25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BT25" s="8" t="s">
+      <c r="BM25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN25" s="8"/>
+      <c r="BO25" s="8"/>
+      <c r="BP25" s="8"/>
+      <c r="BQ25" s="8"/>
+      <c r="BR25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BS25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT25" s="8"/>
+      <c r="BU25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CE25" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="BC26" s="8"/>
+    <row r="26" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="s">
+        <v>237</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R26" t="s">
+        <v>102</v>
+      </c>
+      <c r="S26" t="s">
+        <v>103</v>
+      </c>
+      <c r="T26" t="s">
+        <v>102</v>
+      </c>
+      <c r="U26" t="s">
+        <v>103</v>
+      </c>
+      <c r="W26" t="s">
+        <v>103</v>
+      </c>
+      <c r="X26" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>237</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT26" s="8"/>
+      <c r="BU26" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV26" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL26" t="s">
+        <v>102</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS27" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BS27" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="BT27" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="BV27" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO28" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BS28" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="BT28" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="BV28" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="K29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG29" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/notebooks/TBCK/input/TBCK_IHPRF3_individuals.xlsx
+++ b/notebooks/TBCK/input/TBCK_IHPRF3_individuals.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TBCK/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83B199A-C96D-6145-B09F-A5A120769F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ED05AD-478F-104C-97B2-3FC7C3105FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="6000" windowWidth="33680" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="6720" windowWidth="33680" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="358">
   <si>
     <t>PMID</t>
   </si>
@@ -860,13 +873,247 @@
   </si>
   <si>
     <t>NP_001156907.2:p.(Gln164Ter)</t>
+  </si>
+  <si>
+    <t>PMID:29283439</t>
+  </si>
+  <si>
+    <t>Homozygous boricua TBCK mutation causes neurodegeneration and aberrant autophagy</t>
+  </si>
+  <si>
+    <t>Patient 126-1</t>
+  </si>
+  <si>
+    <t>Patient 126-2</t>
+  </si>
+  <si>
+    <t>Patient 126-3</t>
+  </si>
+  <si>
+    <t>Patient 126-4</t>
+  </si>
+  <si>
+    <t>Patient 126-5</t>
+  </si>
+  <si>
+    <t>Patient 126-6</t>
+  </si>
+  <si>
+    <t>Patient 126-7</t>
+  </si>
+  <si>
+    <t>Patient 126-8</t>
+  </si>
+  <si>
+    <t>P15Y</t>
+  </si>
+  <si>
+    <t>P18Y</t>
+  </si>
+  <si>
+    <t>Partial agenesis of the corpus callosum</t>
+  </si>
+  <si>
+    <t>HP:0001338</t>
+  </si>
+  <si>
+    <t>Hyperintensity of cerebral white matter on MRI</t>
+  </si>
+  <si>
+    <t>HP:0030890</t>
+  </si>
+  <si>
+    <t>Distal amyotrophy</t>
+  </si>
+  <si>
+    <t>HP:0003693</t>
+  </si>
+  <si>
+    <t>Intellectual disability, profound</t>
+  </si>
+  <si>
+    <t>HP:0002187</t>
+  </si>
+  <si>
+    <t>P2M</t>
+  </si>
+  <si>
+    <t>P1Y</t>
+  </si>
+  <si>
+    <t>Areflexia</t>
+  </si>
+  <si>
+    <t>HP:0001284</t>
+  </si>
+  <si>
+    <t>Hypothyroidism</t>
+  </si>
+  <si>
+    <t>HP:0000821</t>
+  </si>
+  <si>
+    <t>Intermittent hypothermia</t>
+  </si>
+  <si>
+    <t>HP:0005964</t>
+  </si>
+  <si>
+    <t>NP_001156907.2:p.(Arg126Ter)</t>
+  </si>
+  <si>
+    <t>Limb undergrowth</t>
+  </si>
+  <si>
+    <t>HP:0009826</t>
+  </si>
+  <si>
+    <t>Multifocal epileptiform discharges</t>
+  </si>
+  <si>
+    <t>HP:0010841</t>
+  </si>
+  <si>
+    <t>Acromelia</t>
+  </si>
+  <si>
+    <t>HP:0010884</t>
+  </si>
+  <si>
+    <t>Decreased compound muscle action potential amplitude</t>
+  </si>
+  <si>
+    <t>HP:0033383</t>
+  </si>
+  <si>
+    <t>EMG: chronic denervation signs</t>
+  </si>
+  <si>
+    <t>HP:0003444</t>
+  </si>
+  <si>
+    <t>PMID:36522252</t>
+  </si>
+  <si>
+    <t>Expanding the phenotype of children presenting with hypoventilation with biallelic TBCK pathogenic variants and literature review</t>
+  </si>
+  <si>
+    <t>Individual 1</t>
+  </si>
+  <si>
+    <t>Individual 2</t>
+  </si>
+  <si>
+    <t>Individual 3</t>
+  </si>
+  <si>
+    <t>Individual 4</t>
+  </si>
+  <si>
+    <t>Individual 5</t>
+  </si>
+  <si>
+    <t>Individual 6</t>
+  </si>
+  <si>
+    <t>p.(Lys455*)</t>
+  </si>
+  <si>
+    <t>c.1512+1G&gt;A</t>
+  </si>
+  <si>
+    <t>c.2060-1_2235+1del</t>
+  </si>
+  <si>
+    <t>exon23 del c.(2059+1_2060-1)_(2235+1_ 2236-1)del</t>
+  </si>
+  <si>
+    <t>p.Arg126Ter</t>
+  </si>
+  <si>
+    <t>P4M</t>
+  </si>
+  <si>
+    <t>P3Y6M</t>
+  </si>
+  <si>
+    <t>Fetal onset</t>
+  </si>
+  <si>
+    <t>Hydrocephalus</t>
+  </si>
+  <si>
+    <t>HP:0000238</t>
+  </si>
+  <si>
+    <t>Polyhydramnios</t>
+  </si>
+  <si>
+    <t>HP:0001561</t>
+  </si>
+  <si>
+    <t>Generalized hypotonia</t>
+  </si>
+  <si>
+    <t>HP:0001290</t>
+  </si>
+  <si>
+    <t>Micrognathia</t>
+  </si>
+  <si>
+    <t>HP:0000347</t>
+  </si>
+  <si>
+    <t>Low-set ears</t>
+  </si>
+  <si>
+    <t>HP:0000369</t>
+  </si>
+  <si>
+    <t>High palate</t>
+  </si>
+  <si>
+    <t>HP:0000218</t>
+  </si>
+  <si>
+    <t>HP:0000262</t>
+  </si>
+  <si>
+    <t>Myopathic facies</t>
+  </si>
+  <si>
+    <t>HP:0002058</t>
+  </si>
+  <si>
+    <t>P1Y2M</t>
+  </si>
+  <si>
+    <t>Nystagmus</t>
+  </si>
+  <si>
+    <t>HP:0000639</t>
+  </si>
+  <si>
+    <t>Hypercholesterolemia</t>
+  </si>
+  <si>
+    <t>HP:0003124</t>
+  </si>
+  <si>
+    <t>Hypertriglyceridemia</t>
+  </si>
+  <si>
+    <t>HP:0002155</t>
+  </si>
+  <si>
+    <t>Turricephaly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,6 +1157,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -946,7 +1213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -961,6 +1228,17 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1265,19 +1543,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CM29"/>
+  <dimension ref="A1:DJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="37" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="15" max="105" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:114" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,214 +1624,283 @@
         <v>148</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="CG1" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="CH1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="CM1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CV1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
         <v>240</v>
       </c>
+      <c r="CZ1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>355</v>
+      </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1620,214 +1968,283 @@
         <v>149</v>
       </c>
       <c r="W2" t="s">
+        <v>346</v>
+      </c>
+      <c r="X2" t="s">
         <v>147</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>186</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>117</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>119</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>236</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>125</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>121</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>123</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>188</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>151</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>192</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>190</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>48</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN2" t="s">
         <v>135</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AP2" t="s">
         <v>45</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>145</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>129</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>184</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>209</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>127</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>46</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AX2" t="s">
         <v>143</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AY2" t="s">
         <v>263</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AZ2" t="s">
         <v>131</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
         <v>133</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BB2" t="s">
         <v>265</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BC2" t="s">
         <v>139</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BD2" t="s">
         <v>141</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BE2" t="s">
         <v>216</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BF2" t="s">
         <v>251</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BG2" t="s">
+        <v>293</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BI2" t="s">
         <v>253</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BJ2" t="s">
         <v>111</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BK2" t="s">
         <v>268</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BL2" t="s">
         <v>113</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BM2" t="s">
+        <v>297</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>349</v>
+      </c>
+      <c r="BO2" t="s">
         <v>109</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BP2" t="s">
         <v>107</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BQ2" t="s">
         <v>115</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>49</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BS2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BT2" t="s">
         <v>52</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BU2" t="s">
         <v>50</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BV2" t="s">
+        <v>303</v>
+      </c>
+      <c r="BW2" t="s">
         <v>230</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BX2" t="s">
         <v>270</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BY2" t="s">
         <v>257</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BZ2" t="s">
         <v>259</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CA2" t="s">
         <v>261</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CB2" t="s">
         <v>228</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CC2" t="s">
         <v>51</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CD2" t="s">
         <v>255</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CE2" t="s">
         <v>53</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CF2" t="s">
         <v>54</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CG2" t="s">
+        <v>340</v>
+      </c>
+      <c r="CH2" t="s">
         <v>101</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CI2" t="s">
         <v>105</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CJ2" t="s">
         <v>168</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CK2" t="s">
         <v>214</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CL2" t="s">
+        <v>352</v>
+      </c>
+      <c r="CM2" t="s">
         <v>206</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CN2" t="s">
         <v>170</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CO2" t="s">
         <v>172</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CP2" t="s">
         <v>174</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CQ2" t="s">
         <v>176</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CR2" t="s">
         <v>178</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CS2" t="s">
         <v>277</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CT2" t="s">
         <v>180</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CU2" t="s">
         <v>182</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CV2" t="s">
         <v>204</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CW2" t="s">
         <v>211</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CX2" t="s">
         <v>239</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CY2" t="s">
         <v>241</v>
       </c>
+      <c r="CZ2" t="s">
+        <v>310</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>314</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>305</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>307</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>312</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>316</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>318</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>336</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>338</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>354</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="3" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
@@ -1888,19 +2305,16 @@
       <c r="V3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="X3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AD3" s="3" t="s">
@@ -1912,83 +2326,86 @@
       <c r="AF3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AH3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>102</v>
+      <c r="AG3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AR3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AS3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AV3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AZ3" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="BA3" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="BD3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BJ3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BK3" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="BL3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS3" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BV3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BX3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="CI3" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:114" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -2047,23 +2464,21 @@
       <c r="V4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="W4" s="3"/>
       <c r="X4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z4" s="3"/>
       <c r="AA4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AB4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC4" s="3"/>
       <c r="AD4" s="3" t="s">
         <v>103</v>
       </c>
@@ -2073,93 +2488,101 @@
       <c r="AF4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI4" s="3"/>
+      <c r="AG4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="AK4" s="3"/>
       <c r="AL4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="AM4" s="3"/>
       <c r="AN4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AR4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AS4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AV4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AW4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY4" s="3"/>
       <c r="AZ4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BA4" s="3"/>
+      <c r="BA4" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI4" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="BD4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
       <c r="BJ4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK4" s="5" t="s">
         <v>103</v>
       </c>
       <c r="BL4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BS4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BU4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BV4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX4" s="5" t="s">
+      <c r="BO4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CE4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI4" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:114" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -2221,23 +2644,21 @@
       <c r="V5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="W5" s="3"/>
       <c r="X5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="Y5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z5" s="3"/>
       <c r="AA5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AB5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC5" s="3"/>
       <c r="AD5" s="3" t="s">
         <v>103</v>
       </c>
@@ -2247,93 +2668,101 @@
       <c r="AF5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI5" s="3"/>
+      <c r="AG5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AJ5" s="3"/>
-      <c r="AK5" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AK5" s="3"/>
       <c r="AL5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AM5" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AM5" s="3"/>
       <c r="AN5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AR5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AS5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AV5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX5" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY5" s="3"/>
       <c r="AZ5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BA5" s="3"/>
+      <c r="BA5" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI5" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="BD5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
       <c r="BJ5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK5" s="5" t="s">
         <v>103</v>
       </c>
       <c r="BL5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BU5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BV5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CE5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI5" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
@@ -2394,20 +2823,17 @@
       <c r="V6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="X6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>103</v>
+        <v>103</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="AD6" s="3" t="s">
         <v>103</v>
@@ -2418,84 +2844,88 @@
       <c r="AF6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AH6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>103</v>
+      <c r="AG6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="AL6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AM6" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AN6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO6" s="3" t="s">
+      <c r="AP6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AR6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AS6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT6" s="3" t="s">
+      <c r="AU6" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AV6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AW6" s="3" t="s">
-        <v>102</v>
+      <c r="AX6" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="AZ6" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="BA6" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="BD6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BF6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI6" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="BJ6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK6" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BL6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BS6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT6" s="8"/>
-      <c r="BU6" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV6" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX6" s="8" t="s">
+      <c r="BO6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD6" s="8"/>
+      <c r="CE6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG6" s="8"/>
+      <c r="CH6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI6" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -2556,19 +2986,16 @@
       <c r="V7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="X7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AD7" s="3" t="s">
@@ -2580,84 +3007,88 @@
       <c r="AF7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AH7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI7" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AL7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AM7" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AN7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO7" s="3" t="s">
+      <c r="AP7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AR7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AS7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT7" s="3" t="s">
+      <c r="AU7" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX7" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AZ7" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="BA7" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="BD7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BF7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI7" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="BJ7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK7" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BL7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT7" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="BO7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT7" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="BU7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BV7" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="BX7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD7" s="8"/>
+      <c r="CE7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG7" s="8"/>
+      <c r="CH7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="CI7" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
@@ -2716,19 +3147,16 @@
       <c r="V8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AD8" s="3" t="s">
@@ -2740,84 +3168,88 @@
       <c r="AF8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AH8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI8" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AL8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AM8" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AN8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO8" s="3" t="s">
+      <c r="AP8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AR8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AS8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT8" s="3" t="s">
+      <c r="AU8" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AV8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AW8" s="3" t="s">
+      <c r="AX8" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AZ8" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="BA8" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="BD8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI8" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BJ8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BK8" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="BL8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT8" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="BO8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT8" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="BU8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BV8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD8" s="8"/>
+      <c r="CE8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG8" s="8"/>
+      <c r="CH8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI8" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>55</v>
       </c>
@@ -2878,108 +3310,109 @@
       <c r="V9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE9" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AL9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AM9" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AN9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO9" s="3" t="s">
-        <v>102</v>
+      <c r="AP9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="AR9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AS9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT9" s="3" t="s">
-        <v>103</v>
+      <c r="AU9" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="AV9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="AZ9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="BD9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BF9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI9" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="BJ9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK9" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BL9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BT9" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="BO9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT9" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="BU9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BV9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CD9" s="8"/>
+      <c r="CE9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG9" s="8"/>
+      <c r="CH9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI9" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -3040,115 +3473,120 @@
       <c r="V10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AC10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>103</v>
+      <c r="AB10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AF10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>102</v>
+      <c r="AF10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="AL10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AM10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO10" s="3" t="s">
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AR10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AS10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT10" s="3" t="s">
+      <c r="AU10" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AV10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AW10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA10" s="5"/>
-      <c r="BB10" s="5"/>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI10" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="AX10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="5"/>
+      <c r="BG10" s="5"/>
+      <c r="BH10" s="5"/>
+      <c r="BI10" s="5"/>
       <c r="BJ10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK10" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BL10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BS10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT10" s="8"/>
+      <c r="BO10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT10" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="BU10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BV10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX10" s="8" t="s">
+      <c r="CC10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD10" s="8"/>
+      <c r="CE10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG10" s="8"/>
+      <c r="CH10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI10" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
@@ -3209,19 +3647,16 @@
       <c r="V11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="X11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AD11" s="3" t="s">
@@ -3230,92 +3665,97 @@
       <c r="AE11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AF11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK11" s="3" t="s">
+      <c r="AF11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AL11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AM11" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AN11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO11" s="3" t="s">
+      <c r="AP11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AR11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AS11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY11" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="AU11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY11" s="5"/>
       <c r="AZ11" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="BA11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC11" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="BD11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BF11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI11" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="BJ11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK11" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BL11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BS11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT11" s="8"/>
+      <c r="BO11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT11" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="BU11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BV11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX11" s="8" t="s">
+      <c r="CC11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD11" s="8"/>
+      <c r="CE11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG11" s="8"/>
+      <c r="CH11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI11" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:114" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
@@ -3377,23 +3817,21 @@
       <c r="V12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="W12" s="3"/>
       <c r="X12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="Y12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z12" s="3"/>
       <c r="AA12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AB12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC12" s="3"/>
       <c r="AD12" s="3" t="s">
         <v>103</v>
       </c>
@@ -3403,93 +3841,101 @@
       <c r="AF12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI12" s="3"/>
+      <c r="AG12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AJ12" s="3"/>
-      <c r="AK12" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AK12" s="3"/>
       <c r="AL12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AM12" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AM12" s="3"/>
       <c r="AN12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AR12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AS12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AV12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AW12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY12" s="3"/>
       <c r="AZ12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BA12" s="3"/>
+      <c r="BA12" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI12" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="BD12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
       <c r="BJ12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK12" s="5" t="s">
         <v>103</v>
       </c>
       <c r="BL12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BU12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BV12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CE12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI12" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:91" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:114" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -3550,23 +3996,21 @@
       <c r="V13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W13" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="W13" s="3"/>
       <c r="X13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="Y13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AB13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC13" s="3"/>
       <c r="AD13" s="3" t="s">
         <v>103</v>
       </c>
@@ -3576,92 +4020,99 @@
       <c r="AF13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI13" s="3"/>
+      <c r="AG13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AJ13" s="3"/>
-      <c r="AK13" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AK13" s="3"/>
       <c r="AL13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AM13" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AM13" s="3"/>
       <c r="AN13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ13" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AR13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AS13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW13" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY13" s="3"/>
       <c r="AZ13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI13" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="BA13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
       <c r="BJ13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK13" s="5" t="s">
         <v>103</v>
       </c>
       <c r="BL13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BU13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BV13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CE13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI13" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -3722,19 +4173,16 @@
       <c r="V14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AD14" s="3" t="s">
@@ -3746,84 +4194,88 @@
       <c r="AF14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AH14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK14" s="3" t="s">
+      <c r="AG14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI14" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AL14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AM14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO14" s="3" t="s">
-        <v>103</v>
+      <c r="AN14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ14" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="AR14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AS14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT14" s="3" t="s">
+      <c r="AU14" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AV14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AW14" s="3" t="s">
+      <c r="AX14" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AZ14" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="BA14" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="BD14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BF14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI14" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="BJ14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK14" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BL14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="BS14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT14" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="BO14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT14" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="BU14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BV14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="BX14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="CC14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD14" s="8"/>
+      <c r="CE14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG14" s="8"/>
+      <c r="CH14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="CI14" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
@@ -3882,23 +4334,21 @@
       <c r="V15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="W15" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="W15" s="5"/>
       <c r="X15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="Y15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC15" s="5"/>
       <c r="AD15" s="3" t="s">
         <v>103</v>
       </c>
@@ -3908,86 +4358,90 @@
       <c r="AF15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AH15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK15" s="3" t="s">
+      <c r="AG15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI15" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AL15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AM15" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="AN15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AO15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT15" s="3" t="s">
+      <c r="AP15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AV15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AW15" s="3" t="s">
+      <c r="AX15" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AZ15" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="BA15" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="BD15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BF15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI15" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="BJ15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK15" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BL15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="BS15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT15" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="BO15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT15" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="BU15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BV15" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BX15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="CC15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD15" s="8"/>
+      <c r="CE15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG15" s="8"/>
+      <c r="CH15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI15" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>152</v>
       </c>
@@ -4048,82 +4502,88 @@
       <c r="V16" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="Y16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI16" s="3" t="s">
+      <c r="W16" s="5"/>
+      <c r="Z16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH16" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AJ16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AP16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ16" s="3"/>
-      <c r="AZ16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
-      <c r="BJ16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM16" s="3"/>
-      <c r="BN16" s="3"/>
-      <c r="BO16" s="3"/>
-      <c r="BP16" s="3"/>
-      <c r="BQ16" s="3"/>
-      <c r="BR16" s="3"/>
-      <c r="BS16" s="8" t="s">
+      <c r="AK16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT16" s="3"/>
+      <c r="BD16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BR16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV16" s="3"/>
+      <c r="BW16" s="3"/>
+      <c r="BX16" s="3"/>
+      <c r="BY16" s="3"/>
+      <c r="BZ16" s="3"/>
+      <c r="CA16" s="3"/>
+      <c r="CB16" s="3"/>
+      <c r="CC16" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="BT16" s="8"/>
-      <c r="BU16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BV16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BY16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BZ16" s="8"/>
-      <c r="CA16" s="8"/>
-      <c r="CB16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CC16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CD16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="CE16" s="8" t="s">
-        <v>102</v>
+      <c r="CD16" s="8"/>
+      <c r="CE16" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="CF16" s="8" t="s">
         <v>102</v>
       </c>
       <c r="CG16" s="8"/>
-      <c r="CH16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CI16" s="8" t="s">
+      <c r="CJ16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK16" s="8"/>
+      <c r="CL16" s="8"/>
+      <c r="CM16" s="8"/>
+      <c r="CN16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CO16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CP16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CQ16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CR16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CS16" s="8"/>
+      <c r="CT16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CU16" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>152</v>
       </c>
@@ -4184,80 +4644,85 @@
       <c r="V17" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="Y17" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI17" s="3" t="s">
+      <c r="W17" s="5"/>
+      <c r="Z17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH17" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AJ17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AP17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ17" s="3"/>
-      <c r="AZ17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BJ17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM17" s="3"/>
-      <c r="BN17" s="3"/>
-      <c r="BO17" s="3"/>
-      <c r="BP17" s="3"/>
-      <c r="BQ17" s="3"/>
-      <c r="BR17" s="3"/>
-      <c r="BS17" s="8" t="s">
+      <c r="AK17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT17" s="3"/>
+      <c r="BD17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BR17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV17" s="3"/>
+      <c r="BW17" s="3"/>
+      <c r="BX17" s="3"/>
+      <c r="BY17" s="3"/>
+      <c r="BZ17" s="3"/>
+      <c r="CA17" s="3"/>
+      <c r="CB17" s="3"/>
+      <c r="CC17" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="BT17" s="8"/>
-      <c r="BU17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BY17" t="s">
-        <v>102</v>
-      </c>
-      <c r="CB17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="CC17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="CD17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="CE17" s="8" t="s">
+      <c r="CD17" s="8"/>
+      <c r="CE17" s="3" t="s">
         <v>102</v>
       </c>
       <c r="CF17" s="8" t="s">
         <v>102</v>
       </c>
       <c r="CG17" s="8"/>
-      <c r="CH17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CI17" s="8" t="s">
+      <c r="CJ17" t="s">
+        <v>102</v>
+      </c>
+      <c r="CN17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CO17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CP17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CQ17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CR17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CS17" s="8"/>
+      <c r="CT17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CU17" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>152</v>
       </c>
@@ -4318,80 +4783,85 @@
       <c r="V18" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="Y18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI18" s="3" t="s">
+      <c r="W18" s="5"/>
+      <c r="Z18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH18" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AJ18" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AP18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ18" s="3"/>
-      <c r="AZ18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BJ18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM18" s="3"/>
-      <c r="BN18" s="3"/>
-      <c r="BO18" s="3"/>
-      <c r="BP18" s="3"/>
-      <c r="BQ18" s="3"/>
-      <c r="BR18" s="3"/>
-      <c r="BS18" s="8" t="s">
+      <c r="AK18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT18" s="3"/>
+      <c r="BD18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BR18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BV18" s="3"/>
+      <c r="BW18" s="3"/>
+      <c r="BX18" s="3"/>
+      <c r="BY18" s="3"/>
+      <c r="BZ18" s="3"/>
+      <c r="CA18" s="3"/>
+      <c r="CB18" s="3"/>
+      <c r="CC18" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="BT18" s="8"/>
-      <c r="BU18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BY18" t="s">
-        <v>103</v>
-      </c>
-      <c r="CB18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="CC18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="CD18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="CE18" s="8" t="s">
+      <c r="CD18" s="8"/>
+      <c r="CE18" s="3" t="s">
         <v>102</v>
       </c>
       <c r="CF18" s="8" t="s">
         <v>102</v>
       </c>
       <c r="CG18" s="8"/>
-      <c r="CH18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CI18" s="8" t="s">
+      <c r="CJ18" t="s">
+        <v>103</v>
+      </c>
+      <c r="CN18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CO18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CP18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CQ18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CR18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CS18" s="8"/>
+      <c r="CT18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CU18" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>152</v>
       </c>
@@ -4452,82 +4922,88 @@
       <c r="V19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Y19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI19" s="3" t="s">
+      <c r="W19" s="5"/>
+      <c r="Z19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH19" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AJ19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AP19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ19" s="3"/>
-      <c r="AZ19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BJ19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BL19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM19" s="3"/>
-      <c r="BN19" s="3"/>
-      <c r="BO19" s="3"/>
-      <c r="BP19" s="3"/>
-      <c r="BQ19" s="3"/>
-      <c r="BR19" s="3"/>
-      <c r="BS19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT19" s="8"/>
+      <c r="AK19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT19" s="3"/>
+      <c r="BD19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BR19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT19" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="BU19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BV19" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BY19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BZ19" s="8"/>
-      <c r="CA19" s="8"/>
-      <c r="CB19" s="8" t="s">
-        <v>103</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="BV19" s="3"/>
+      <c r="BW19" s="3"/>
+      <c r="BX19" s="3"/>
+      <c r="BY19" s="3"/>
+      <c r="BZ19" s="3"/>
+      <c r="CA19" s="3"/>
+      <c r="CB19" s="3"/>
       <c r="CC19" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="CD19" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CE19" s="8" t="s">
+      <c r="CD19" s="8"/>
+      <c r="CE19" s="3" t="s">
         <v>103</v>
       </c>
       <c r="CF19" s="8" t="s">
         <v>102</v>
       </c>
       <c r="CG19" s="8"/>
-      <c r="CH19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="CI19" s="8" t="s">
+      <c r="CJ19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CK19" s="8"/>
+      <c r="CL19" s="8"/>
+      <c r="CM19" s="8"/>
+      <c r="CN19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CO19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CP19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CQ19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CS19" s="8"/>
+      <c r="CT19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CU19" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>152</v>
       </c>
@@ -4588,82 +5064,88 @@
       <c r="V20" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="Y20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI20" s="3" t="s">
+      <c r="W20" s="5"/>
+      <c r="Z20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH20" s="3" t="s">
         <v>102</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ20" s="3"/>
-      <c r="AZ20" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
-      <c r="BC20" s="3"/>
-      <c r="BJ20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM20" s="3"/>
-      <c r="BN20" s="3"/>
-      <c r="BO20" s="3"/>
-      <c r="BP20" s="3"/>
-      <c r="BQ20" s="3"/>
-      <c r="BR20" s="3"/>
-      <c r="BS20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT20" s="3"/>
+      <c r="BD20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BR20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV20" s="3"/>
+      <c r="BW20" s="3"/>
+      <c r="BX20" s="3"/>
+      <c r="BY20" s="3"/>
+      <c r="BZ20" s="3"/>
+      <c r="CA20" s="3"/>
+      <c r="CB20" s="3"/>
+      <c r="CC20" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="BT20" s="8"/>
-      <c r="BU20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BY20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BZ20" s="8"/>
-      <c r="CA20" s="8"/>
-      <c r="CB20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="CC20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="CD20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="CE20" s="8" t="s">
+      <c r="CD20" s="8"/>
+      <c r="CE20" s="3" t="s">
         <v>102</v>
       </c>
       <c r="CF20" s="8" t="s">
         <v>102</v>
       </c>
       <c r="CG20" s="8"/>
-      <c r="CH20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CI20" s="8" t="s">
+      <c r="CJ20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK20" s="8"/>
+      <c r="CL20" s="8"/>
+      <c r="CM20" s="8"/>
+      <c r="CN20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CO20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CP20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CQ20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CR20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CS20" s="8"/>
+      <c r="CT20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CU20" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>195</v>
       </c>
@@ -4709,45 +5191,47 @@
       <c r="P21" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="Q21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BJ21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS21" s="8" t="s">
+      <c r="Q21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC21" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="BT21" s="8"/>
-      <c r="BV21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BY21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BZ21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CA21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CJ21" t="s">
-        <v>102</v>
-      </c>
-      <c r="CK21" t="s">
+      <c r="CD21" s="8"/>
+      <c r="CF21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG21" s="8"/>
+      <c r="CJ21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL21" s="8"/>
+      <c r="CM21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>102</v>
+      </c>
+      <c r="CW21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>195</v>
       </c>
@@ -4790,43 +5274,45 @@
       <c r="P22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="Q22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BJ22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS22" s="8" t="s">
+      <c r="Q22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD22" s="3"/>
+      <c r="BE22" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC22" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="BT22" s="8"/>
-      <c r="BV22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BZ22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CA22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CJ22" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="CD22" s="8"/>
+      <c r="CF22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG22" s="8"/>
       <c r="CK22" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="CL22" s="8"/>
+      <c r="CM22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CV22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CW22" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>195</v>
       </c>
@@ -4872,38 +5358,42 @@
       <c r="Q23" t="s">
         <v>41</v>
       </c>
-      <c r="AQ23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB23" s="8"/>
-      <c r="BC23" s="8"/>
-      <c r="BJ23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS23" s="8" t="s">
+      <c r="AT23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF23" s="8"/>
+      <c r="BG23" s="8"/>
+      <c r="BH23" s="8"/>
+      <c r="BI23" s="8"/>
+      <c r="BR23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC23" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="BT23" s="8"/>
-      <c r="BV23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BZ23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CA23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CJ23" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="CD23" s="8"/>
+      <c r="CF23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG23" s="8"/>
       <c r="CK23" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="CL23" s="8"/>
+      <c r="CM23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CV23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CW23" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>221</v>
       </c>
@@ -4952,61 +5442,64 @@
       <c r="Q24" t="s">
         <v>41</v>
       </c>
-      <c r="W24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>103</v>
-      </c>
-      <c r="AQ24" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="X24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO24" s="8"/>
       <c r="AS24" t="s">
         <v>103</v>
       </c>
-      <c r="AW24" t="s">
-        <v>103</v>
-      </c>
-      <c r="BH24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BJ24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN24" s="8"/>
-      <c r="BO24" s="8"/>
-      <c r="BP24" s="8"/>
-      <c r="BQ24" s="8"/>
+      <c r="AT24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BP24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ24" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="BR24" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BS24" s="8" t="s">
+      <c r="BW24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX24" s="8"/>
+      <c r="BY24" s="8"/>
+      <c r="BZ24" s="8"/>
+      <c r="CA24" s="8"/>
+      <c r="CB24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="BT24" s="8"/>
-      <c r="BU24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BZ24" s="8" t="s">
-        <v>103</v>
-      </c>
+      <c r="CD24" s="8"/>
       <c r="CE24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG24" s="8"/>
+      <c r="CK24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CL24" s="8"/>
+      <c r="CQ24" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>221</v>
       </c>
@@ -5052,61 +5545,64 @@
       <c r="Q25" t="s">
         <v>41</v>
       </c>
-      <c r="W25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>103</v>
-      </c>
-      <c r="AQ25" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="X25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO25" s="8"/>
       <c r="AS25" t="s">
         <v>103</v>
       </c>
-      <c r="AW25" t="s">
-        <v>103</v>
-      </c>
-      <c r="BH25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BJ25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BN25" s="8"/>
-      <c r="BO25" s="8"/>
-      <c r="BP25" s="8"/>
-      <c r="BQ25" s="8"/>
+      <c r="AT25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>103</v>
+      </c>
+      <c r="BP25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ25" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="BR25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BS25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT25" s="8"/>
-      <c r="BU25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BZ25" s="8" t="s">
-        <v>102</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="BW25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX25" s="8"/>
+      <c r="BY25" s="8"/>
+      <c r="BZ25" s="8"/>
+      <c r="CA25" s="8"/>
+      <c r="CB25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD25" s="8"/>
       <c r="CE25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG25" s="8"/>
+      <c r="CK25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL25" s="8"/>
+      <c r="CQ25" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>231</v>
       </c>
@@ -5152,7 +5648,7 @@
       <c r="P26" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="Q26" s="8" t="s">
+      <c r="Q26" t="s">
         <v>41</v>
       </c>
       <c r="R26" t="s">
@@ -5167,26 +5663,23 @@
       <c r="U26" t="s">
         <v>103</v>
       </c>
-      <c r="W26" t="s">
-        <v>103</v>
-      </c>
       <c r="X26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y26" t="s">
         <v>102</v>
       </c>
       <c r="Z26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA26" t="s">
         <v>103</v>
       </c>
       <c r="AB26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD26" t="s">
         <v>103</v>
@@ -5204,65 +5697,70 @@
         <v>103</v>
       </c>
       <c r="AI26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s">
         <v>103</v>
       </c>
       <c r="AL26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM26" t="s">
         <v>103</v>
       </c>
       <c r="AN26" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV26" t="s">
         <v>237</v>
       </c>
-      <c r="BA26" t="s">
-        <v>103</v>
-      </c>
-      <c r="BD26" t="s">
+      <c r="BE26" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ26" t="s">
         <v>234</v>
       </c>
-      <c r="BF26" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL26" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS26" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT26" s="8"/>
-      <c r="BU26" t="s">
-        <v>103</v>
-      </c>
-      <c r="BV26" s="8" t="s">
+      <c r="BL26" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV26" s="9"/>
+      <c r="CC26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CD26" s="8"/>
+      <c r="CE26" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF26" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="CL26" t="s">
-        <v>102</v>
-      </c>
-      <c r="CM26" t="s">
+      <c r="CG26" s="8"/>
+      <c r="CX26" t="s">
+        <v>102</v>
+      </c>
+      <c r="CY26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>244</v>
       </c>
@@ -5308,58 +5806,40 @@
       <c r="P27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="Q27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS27" s="3" t="s">
+      <c r="Q27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV27" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AU27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX27" t="s">
+      <c r="AW27" s="3"/>
+      <c r="AY27" t="s">
         <v>102</v>
       </c>
       <c r="BA27" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB27" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC27" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>103</v>
-      </c>
-      <c r="BE27" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG27" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH27" s="8" t="s">
-        <v>102</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG27" s="8"/>
+      <c r="BH27" s="8"/>
       <c r="BI27" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BJ27" s="8" t="s">
-        <v>102</v>
+      <c r="BJ27" t="s">
+        <v>103</v>
       </c>
       <c r="BK27" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BL27" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN27" s="8" t="s">
         <v>102</v>
       </c>
       <c r="BO27" s="8" t="s">
@@ -5372,19 +5852,42 @@
         <v>102</v>
       </c>
       <c r="BR27" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BS27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV27" s="8"/>
+      <c r="BX27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC27" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="BT27" s="8" t="s">
+      <c r="CD27" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="BV27" s="3" t="s">
+      <c r="CF27" s="3" t="s">
         <v>200</v>
       </c>
+      <c r="CG27" s="3"/>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>244</v>
       </c>
@@ -5427,77 +5930,81 @@
       <c r="P28" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="Q28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX28" t="s">
+      <c r="Q28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY28" t="s">
         <v>103</v>
       </c>
       <c r="BA28" t="s">
         <v>103</v>
       </c>
-      <c r="BB28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BD28" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH28" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="BB28" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG28" s="8"/>
+      <c r="BH28" s="8"/>
       <c r="BI28" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BJ28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BK28" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BL28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN28" s="8" t="s">
-        <v>102</v>
+      <c r="BJ28" t="s">
+        <v>103</v>
       </c>
       <c r="BO28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV28" s="8"/>
+      <c r="BX28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY28" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="BP28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BQ28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BR28" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BS28" s="8" t="s">
+      <c r="BZ28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC28" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="BT28" s="8" t="s">
+      <c r="CD28" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="BV28" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="CF28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG28" s="8"/>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>273</v>
       </c>
@@ -5543,7 +6050,7 @@
       <c r="P29" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="Q29" s="8" t="s">
+      <c r="Q29" t="s">
         <v>41</v>
       </c>
       <c r="R29" s="8" t="s">
@@ -5558,10 +6065,7 @@
       <c r="U29" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="X29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z29" s="8" t="s">
+      <c r="Y29" s="8" t="s">
         <v>103</v>
       </c>
       <c r="AA29" s="8" t="s">
@@ -5570,10 +6074,10 @@
       <c r="AB29" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AE29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG29" s="8" t="s">
+      <c r="AC29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF29" s="8" t="s">
         <v>103</v>
       </c>
       <c r="AH29" s="8" t="s">
@@ -5588,40 +6092,1987 @@
       <c r="AK29" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AM29" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN29" s="8" t="s">
-        <v>103</v>
-      </c>
+      <c r="AL29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM29" s="8"/>
       <c r="AP29" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AQ29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF29" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG29" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH29" t="s">
-        <v>102</v>
-      </c>
-      <c r="BI29" t="s">
-        <v>102</v>
-      </c>
-      <c r="BJ29" t="s">
-        <v>102</v>
+      <c r="AQ29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT29" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="BL29" t="s">
         <v>102</v>
       </c>
-      <c r="BV29" t="s">
-        <v>102</v>
-      </c>
-      <c r="CG29" t="s">
+      <c r="BO29" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF29" t="s">
+        <v>102</v>
+      </c>
+      <c r="CS29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" t="s">
+        <v>73</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="M30" t="s">
+        <v>237</v>
+      </c>
+      <c r="N30" t="s">
+        <v>290</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P30" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>41</v>
+      </c>
+      <c r="R30" t="s">
+        <v>102</v>
+      </c>
+      <c r="T30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC30" t="s">
+        <v>164</v>
+      </c>
+      <c r="CF30" t="s">
+        <v>237</v>
+      </c>
+      <c r="CQ30" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT30" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ30" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA30" t="s">
+        <v>102</v>
+      </c>
+      <c r="DB30" t="s">
+        <v>103</v>
+      </c>
+      <c r="DC30" t="s">
+        <v>102</v>
+      </c>
+      <c r="DD30" t="s">
+        <v>102</v>
+      </c>
+      <c r="DE30" t="s">
+        <v>41</v>
+      </c>
+      <c r="DF30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" t="s">
+        <v>283</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" t="s">
+        <v>73</v>
+      </c>
+      <c r="M31" t="s">
+        <v>237</v>
+      </c>
+      <c r="N31" t="s">
+        <v>290</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>41</v>
+      </c>
+      <c r="R31" t="s">
+        <v>102</v>
+      </c>
+      <c r="T31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB31" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC31" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF31" t="s">
+        <v>237</v>
+      </c>
+      <c r="CQ31" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT31" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ31" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA31" t="s">
+        <v>102</v>
+      </c>
+      <c r="DB31" t="s">
+        <v>102</v>
+      </c>
+      <c r="DC31" t="s">
+        <v>102</v>
+      </c>
+      <c r="DD31" t="s">
+        <v>102</v>
+      </c>
+      <c r="DE31" t="s">
+        <v>102</v>
+      </c>
+      <c r="DF31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" t="s">
+        <v>237</v>
+      </c>
+      <c r="N32" t="s">
+        <v>248</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P32" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>41</v>
+      </c>
+      <c r="R32" t="s">
+        <v>102</v>
+      </c>
+      <c r="T32" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>237</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>102</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>102</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>102</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>102</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>102</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33" t="s">
+        <v>237</v>
+      </c>
+      <c r="N33" t="s">
+        <v>248</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>41</v>
+      </c>
+      <c r="R33" t="s">
+        <v>102</v>
+      </c>
+      <c r="T33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>237</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>102</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>103</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>102</v>
+      </c>
+      <c r="DD33" t="s">
+        <v>102</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>102</v>
+      </c>
+      <c r="DF33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" t="s">
+        <v>73</v>
+      </c>
+      <c r="M34" t="s">
+        <v>219</v>
+      </c>
+      <c r="N34" t="s">
+        <v>89</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P34" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>41</v>
+      </c>
+      <c r="R34" t="s">
+        <v>102</v>
+      </c>
+      <c r="T34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB34" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>300</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>219</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>41</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>102</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>103</v>
+      </c>
+      <c r="DC34" t="s">
+        <v>102</v>
+      </c>
+      <c r="DD34" t="s">
+        <v>103</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>41</v>
+      </c>
+      <c r="DF34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" t="s">
+        <v>287</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" t="s">
+        <v>237</v>
+      </c>
+      <c r="N35" t="s">
+        <v>291</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" t="s">
+        <v>102</v>
+      </c>
+      <c r="T35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB35" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC35" t="s">
+        <v>90</v>
+      </c>
+      <c r="CF35" t="s">
+        <v>237</v>
+      </c>
+      <c r="CQ35" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT35" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ35" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA35" t="s">
+        <v>102</v>
+      </c>
+      <c r="DB35" t="s">
+        <v>102</v>
+      </c>
+      <c r="DC35" t="s">
+        <v>102</v>
+      </c>
+      <c r="DD35" t="s">
+        <v>102</v>
+      </c>
+      <c r="DE35" t="s">
+        <v>41</v>
+      </c>
+      <c r="DF35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36" t="s">
+        <v>237</v>
+      </c>
+      <c r="N36" t="s">
+        <v>94</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P36" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>41</v>
+      </c>
+      <c r="R36" t="s">
+        <v>102</v>
+      </c>
+      <c r="T36" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF36" t="s">
+        <v>237</v>
+      </c>
+      <c r="CQ36" t="s">
+        <v>103</v>
+      </c>
+      <c r="CT36" t="s">
+        <v>103</v>
+      </c>
+      <c r="CZ36" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA36" t="s">
+        <v>102</v>
+      </c>
+      <c r="DB36" t="s">
+        <v>41</v>
+      </c>
+      <c r="DC36" t="s">
+        <v>103</v>
+      </c>
+      <c r="DD36" t="s">
+        <v>41</v>
+      </c>
+      <c r="DE36" t="s">
+        <v>41</v>
+      </c>
+      <c r="DF36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:114" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" t="s">
+        <v>73</v>
+      </c>
+      <c r="M37" t="s">
+        <v>237</v>
+      </c>
+      <c r="N37" t="s">
+        <v>88</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>41</v>
+      </c>
+      <c r="R37" t="s">
+        <v>102</v>
+      </c>
+      <c r="T37" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG37" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>102</v>
+      </c>
+      <c r="CB37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>301</v>
+      </c>
+      <c r="CF37" t="s">
+        <v>237</v>
+      </c>
+      <c r="CQ37" t="s">
+        <v>103</v>
+      </c>
+      <c r="CT37" t="s">
+        <v>103</v>
+      </c>
+      <c r="CZ37" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA37" t="s">
+        <v>102</v>
+      </c>
+      <c r="DB37" t="s">
+        <v>103</v>
+      </c>
+      <c r="DC37" t="s">
+        <v>103</v>
+      </c>
+      <c r="DD37" t="s">
+        <v>103</v>
+      </c>
+      <c r="DE37" t="s">
+        <v>41</v>
+      </c>
+      <c r="DF37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" t="s">
+        <v>321</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>41</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="W38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC38" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="CJ38" t="s">
+        <v>103</v>
+      </c>
+      <c r="CK38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR38" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS38" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="DD38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="DE38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="DF38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="DG38" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="DH38" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="DI38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="DJ38" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C39" t="s">
+        <v>322</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>41</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="W39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z39" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT39" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU39" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC39" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF39" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG39" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH39" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="CJ39" t="s">
+        <v>103</v>
+      </c>
+      <c r="CK39" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL39" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CR39" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS39" t="s">
+        <v>103</v>
+      </c>
+      <c r="CX39" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="DD39" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="DE39" t="s">
+        <v>103</v>
+      </c>
+      <c r="DF39" t="s">
+        <v>103</v>
+      </c>
+      <c r="DG39" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="DH39" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="DI39" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="DJ39" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40" t="s">
+        <v>323</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>41</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="T40" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="W40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z40" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT40" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU40" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC40" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF40" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG40" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH40" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="CJ40" t="s">
+        <v>103</v>
+      </c>
+      <c r="CK40" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL40" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CR40" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS40" t="s">
+        <v>103</v>
+      </c>
+      <c r="CX40" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="DD40" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="DE40" t="s">
+        <v>41</v>
+      </c>
+      <c r="DF40" t="s">
+        <v>41</v>
+      </c>
+      <c r="DG40" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="DH40" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="DI40" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="DJ40" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C41" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>41</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT41" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC41" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH41" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="CJ41" t="s">
+        <v>103</v>
+      </c>
+      <c r="CK41" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="CL41" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CS41" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX41" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="DD41" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="DE41" t="s">
+        <v>41</v>
+      </c>
+      <c r="DF41" t="s">
+        <v>41</v>
+      </c>
+      <c r="DG41" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="DH41" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="DI41" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="DJ41" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C42" t="s">
+        <v>325</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>41</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="W42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z42" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC42" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF42" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG42" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="CJ42" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="CL42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR42" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="CS42" t="s">
+        <v>350</v>
+      </c>
+      <c r="CX42" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="DD42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="DE42" t="s">
+        <v>103</v>
+      </c>
+      <c r="DF42" t="s">
+        <v>103</v>
+      </c>
+      <c r="DG42" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="DH42" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="DI42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="DJ42" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:114" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="L43" s="16"/>
+      <c r="M43" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O43" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P43" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q43" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="R43" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="T43" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="W43" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y43" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z43" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM43" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO43" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ43" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR43" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW43" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD43" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN43" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO43" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP43" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ43" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR43" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS43" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT43" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU43" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC43" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF43" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG43" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH43" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="CJ43" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK43" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="CL43" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR43" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="CS43" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX43" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="DD43" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="DE43" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="DF43" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="DG43" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="DH43" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="DI43" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="DJ43" s="16" t="s">
         <v>102</v>
       </c>
     </row>
